--- a/A. Documents/06 Tài liệu testcase.xlsx
+++ b/A. Documents/06 Tài liệu testcase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Git\QLNhaThuoc\A. Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7875" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -18,20 +13,16 @@
     <sheet name="Giới thiệu" sheetId="4" r:id="rId4"/>
     <sheet name="Bảng các test suite" sheetId="5" r:id="rId5"/>
     <sheet name="Báo cáo tổng hợp" sheetId="6" r:id="rId6"/>
-    <sheet name="Yêu cầu 1" sheetId="7" r:id="rId7"/>
-    <sheet name="Yêu cầu 2" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Yêu cầu n" sheetId="13" r:id="rId13"/>
+    <sheet name="Tạo hóa đơn bán thuốc" sheetId="7" r:id="rId7"/>
+    <sheet name="Tọa hóa đơn nhập thuốc" sheetId="8" r:id="rId8"/>
+    <sheet name="Quản lý hóa đơn" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
   <si>
     <t>Trang ký</t>
   </si>
@@ -99,27 +90,6 @@
     <t>BẢNG CÁC TEST SUITE</t>
   </si>
   <si>
-    <t>Thêm mới người sử dụng</t>
-  </si>
-  <si>
-    <t>YC1</t>
-  </si>
-  <si>
-    <t>YC2</t>
-  </si>
-  <si>
-    <t>Lập đơn hàng</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>YCn</t>
-  </si>
-  <si>
-    <t>Thoát khỏi ứng dụng</t>
-  </si>
-  <si>
     <t>Số testcase đạt (P)</t>
   </si>
   <si>
@@ -150,12 +120,6 @@
     <t>BÁO CÁO KẾT QUẢ TEST</t>
   </si>
   <si>
-    <t>Main_Form/Thêm user mới</t>
-  </si>
-  <si>
-    <t>Main_Form/Lập đơn hàng</t>
-  </si>
-  <si>
     <t>Mã test case</t>
   </si>
   <si>
@@ -180,27 +144,12 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>YC1_1</t>
-  </si>
-  <si>
-    <t>Kiểm thử xem có chức năng thêm người sử dụng mới hay không</t>
-  </si>
-  <si>
-    <t>Mở menu Hệ thống/ New user</t>
-  </si>
-  <si>
-    <t>Hiện form Add new user</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>TEST SUITE</t>
   </si>
   <si>
-    <t>YC1_2</t>
-  </si>
-  <si>
     <t>Tên giao diện/chức năng:</t>
   </si>
   <si>
@@ -223,15 +172,6 @@
   </si>
   <si>
     <t>Kết quả thực tế/Mã lỗi</t>
-  </si>
-  <si>
-    <t>Cấu trúc như trang yêu cầu 1</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>[Nguyễn Văn C]</t>
   </si>
   <si>
     <t>20/05/2016</t>
@@ -296,12 +236,229 @@
   </si>
   <si>
     <t>29/05/2016</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng bán thuốc với đầy đủ các thành phần hay không</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Bán thuốc" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>Lên danh sách nhập thuốc và Lập hóa đơn nhập thuốc</t>
+  </si>
+  <si>
+    <t>Lên danh sách bán thuốc và Lập hóa đơn bán thuốc</t>
+  </si>
+  <si>
+    <t>Quản lý thuốc</t>
+  </si>
+  <si>
+    <t>Quản lý nhóm thuốc</t>
+  </si>
+  <si>
+    <t>Phan Nguyên Hải</t>
+  </si>
+  <si>
+    <t>Kiểm tra kho thuốc</t>
+  </si>
+  <si>
+    <t>Kiểm tra thuốc tới hạn</t>
+  </si>
+  <si>
+    <t>Tài liệu đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Tài liệu thiết kế phần mềm</t>
+  </si>
+  <si>
+    <t>03 Tài liệu đặc tả yêu cầu.doc</t>
+  </si>
+  <si>
+    <t>04 Tài liệu thiết kế phần mềm.doc</t>
+  </si>
+  <si>
+    <t>HĐ bán thuốc</t>
+  </si>
+  <si>
+    <t>HĐ nhập thuốc</t>
+  </si>
+  <si>
+    <t>KT kho thuốc</t>
+  </si>
+  <si>
+    <t>KT thuốc tới hạn</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>Đăng nhập hệ thống</t>
+  </si>
+  <si>
+    <t>Thoát hệ thống</t>
+  </si>
+  <si>
+    <t>QL thuốc</t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QL tài khoản </t>
+  </si>
+  <si>
+    <t>ĐN hệ thống</t>
+  </si>
+  <si>
+    <t>HĐ Bán thuốc</t>
+  </si>
+  <si>
+    <t>HĐ Bán thuốc_1</t>
+  </si>
+  <si>
+    <t>Lên danh sách,lập hóa đơn bán thuốc bán thuốc</t>
+  </si>
+  <si>
+    <t>HĐ Bán thuốc_2</t>
+  </si>
+  <si>
+    <t>Bước 1: đăng nhập hệ thống 
+Bước 2: Click chọn "Bán thuốc"-&gt;"Bán hàng"</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có tạo được danh sách bán thuốc hay không</t>
+  </si>
+  <si>
+    <t>Bước 1:Click chọn thuốc cần bán trong bảng.
+Bước 2: Tùy chỉnh số lượng thuốc.
+Bước 3: Nhấn "OK"</t>
+  </si>
+  <si>
+    <t>Hiển thị đủ thông tin mua các loại thuốc trong phần "Những sản phẩm đã chọn"</t>
+  </si>
+  <si>
+    <t>Hiển thị trên giao diện : đầy đủ danh sách và thông tin mua thuốc trên màn hình</t>
+  </si>
+  <si>
+    <t>HĐ Bán thuốc_3</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có tạo  được hóa đơn thanh toán hay không</t>
+  </si>
+  <si>
+    <t>Bước 1: Nhập thông tin khách hàng.
+Bước 2: Click chọn "Thanh toán"</t>
+  </si>
+  <si>
+    <t>Hiển thị lên giao diện hóa đơn với đủ thông tin của hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện: Hóa đơn với đủ yêu cầu đề ra</t>
+  </si>
+  <si>
+    <t>HĐ Bán thuốc_4</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có in hóa đơn được không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 1: Click "In hóa đơn" </t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo thành công</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo thánh công</t>
+  </si>
+  <si>
+    <t>Lên danh sách,lập hóa đơn bán thuốc nhập thuốc</t>
+  </si>
+  <si>
+    <t>Bước 1: đăng nhập hệ thống 
+Bước 2: Click chọn "Kho hàng"-&gt;"Nhập hàng"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Nhập thuốc" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>HĐ Nhập thuốc</t>
+  </si>
+  <si>
+    <t>HĐ Nhập thuốc_1</t>
+  </si>
+  <si>
+    <t>HĐ Nhập thuốc_2</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có tạo được danh sách nhập thuốc hay không</t>
+  </si>
+  <si>
+    <t>Bước 1Điền đầy đủ thông tin vào các ô nhập liệu
+Bước 2: Click "Nhập thuốc"</t>
+  </si>
+  <si>
+    <t>Hiển thị đủ thông tin nhập các loại thuốc trong phần "Danh sách thuốc đã nhập"</t>
+  </si>
+  <si>
+    <t>Hiển thị trên giao diện : đầy đủ danh sách và thông tin nhập thuốc trên màn hình</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có tạo  được hóa đơn nhập thuốc hay không</t>
+  </si>
+  <si>
+    <t>Bước 1: Click chọn "Lưu hóa đơn nhập"</t>
+  </si>
+  <si>
+    <t>Hiển thị lên thông báo thành công</t>
+  </si>
+  <si>
+    <t>HĐ Nhập thuốc_3</t>
+  </si>
+  <si>
+    <t>QL hóa đơn</t>
+  </si>
+  <si>
+    <t>Quản lý hóa đơn</t>
+  </si>
+  <si>
+    <t>QL Hóa đơn</t>
+  </si>
+  <si>
+    <t>QL Hóa đơn_1</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng xem hóa đơn với đầy đủ các thành phần hay không</t>
+  </si>
+  <si>
+    <t>Bước 1: đăng nhập hệ thống 
+Bước 2: Click chọn "Bán thuốc"-&gt;"Xem hóa đơn"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Xem hóa đơn" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL Hóa đơn_2</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem cóxem được chi tiết hóa đơn hay không</t>
+  </si>
+  <si>
+    <t>Bước 1: Click chọn hóa đơn muốn xem</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ thông tin hóa đơn đó</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đử thông tin hóa đơn trên màn hình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -354,15 +511,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -394,6 +557,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -402,7 +602,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -452,6 +652,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +674,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,26 +784,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,23 +819,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,26 +1009,26 @@
     <row r="8" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="4:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="4:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -851,60 +1040,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -914,63 +1055,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,18 +1119,18 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -997,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
         <v>1</v>
@@ -1005,7 +1146,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1035,41 +1176,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1100,18 +1241,18 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -1323,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D21"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1356,100 +1497,86 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1459,30 +1586,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1500,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,51 +1638,99 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -1598,15 +1773,12 @@
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1615,82 +1787,90 @@
   <hyperlinks>
     <hyperlink ref="B4" location="'Yêu cầu 1'!A1" display="YC1"/>
     <hyperlink ref="B5" location="'Yêu cầu 2'!A1" display="YC2"/>
-    <hyperlink ref="B22" location="'Yêu cầu n'!A1" display="YCn"/>
+    <hyperlink ref="B6" location="'Quản lý kho thuốc'!A1" display="YC3"/>
+    <hyperlink ref="B7" location="'Quản lý thuốc'!A1" display="YC4"/>
+    <hyperlink ref="B9" location="'Quản lý nhóm thuốc'!A1" display="YC5"/>
+    <hyperlink ref="B10" location="'Quản lý nhà cung cấp'!A1" display="YC6"/>
+    <hyperlink ref="B11" location="'Thêm mới người dùng'!A1" display="YC7"/>
+    <hyperlink ref="B12" location="'Quản lý nhà cung cấp'!A1" display="YC6"/>
+    <hyperlink ref="B13" location="'Quản lý nhà cung cấp'!A1" display="YC6"/>
+    <hyperlink ref="B8" location="'Quản lý thuốc'!A1" display="YC4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A19:J39"/>
+  <dimension ref="A19:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="A19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,36 +1878,72 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>100</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>100</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="12">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1738,8 +1954,12 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="12">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1750,20 +1970,44 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="12">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>100</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="12">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1774,8 +2018,12 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="12">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1786,8 +2034,12 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="12">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1798,8 +2050,12 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="12">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1810,8 +2066,12 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="12">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1916,6 +2176,18 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1930,166 +2202,240 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E8" s="28">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="F11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="G11" s="32">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="F12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="G12" s="32">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="32">
+        <v>42524</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="32">
+        <v>42525</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2214,41 +2560,551 @@
       <c r="I25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="28">
+        <v>3</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="32">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="32">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="32">
+        <v>42524</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="32">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="32">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/A. Documents/06 Tài liệu testcase.xlsx
+++ b/A. Documents/06 Tài liệu testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="Tạo hóa đơn bán thuốc" sheetId="7" r:id="rId7"/>
     <sheet name="Tọa hóa đơn nhập thuốc" sheetId="8" r:id="rId8"/>
     <sheet name="Quản lý hóa đơn" sheetId="11" r:id="rId9"/>
+    <sheet name="Quản lý thuốc" sheetId="12" r:id="rId10"/>
+    <sheet name="Đăng nhập hệ thống" sheetId="13" r:id="rId11"/>
+    <sheet name="Thoát" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="187">
   <si>
     <t>Trang ký</t>
   </si>
@@ -453,6 +456,158 @@
   </si>
   <si>
     <t>Hiển thị đầy đử thông tin hóa đơn trên màn hình</t>
+  </si>
+  <si>
+    <t>QL thuốc_1</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng Quản lý thuốc với đầy đủ các thành phần hay không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ B1: Mở menu Hệ thống
++ B2: - Click chọn “Quản lý thuốc” </t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Quản lý thuốc" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL thuốc_2</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Thuốc" hay không</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống
++ B2: - Click chọn “Quản lý thuốc” -&gt; “Thuốc”</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Thuốc" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL thuốc_3</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Thêm mới" hay không</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống
++ B2: - Click chọn “Quản lý thuốc” -&gt; “Thuốc”-&gt;"Thêm mới"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Thêm mới" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL thuốc_4</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "sửa" hay không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ B1: Mở menu Hệ thống
++ B2: Click chọn "Quản lý thuốc" -&gt; "Thuốc"
++ B3: Nhấn icon “Edit” của loại thuốc cần chỉnh sửa. </t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện  với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL thuốc_5</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "xóa" hay không</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống
++ B2: Click chọn "Quản lý thuốc" -&gt; "Thuốc"
++ B3: Nhấn icon “Delete” của loại thuốc cần xóa</t>
+  </si>
+  <si>
+    <t>QL thuốc_6</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Tìm kiếm thuốc" hay không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+B1: Đăng nhập thành công với quyền truy cập của nhân viên quản lý
++B2 Click chọn “Quản lý thuốc” -&gt; “Thuốc”. 
++B3 Chọn vào ô “Tìm kiếm:”. Nhập từ khóa về loại thuốc muốn tìm.
+</t>
+  </si>
+  <si>
+    <t>QL thuốc_7</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Xem thuốc" hay không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+B1: Đăng nhập thành công với quyền truy cập của nhân viên quản lý
++B2 Click chọn “Quản lý thuốc” -&gt; “Thuốc”. ”. Lúc này danh sách thuốc được hiện ra.
++B3: Click vào tên loại thuốc muốn xem.
+</t>
+  </si>
+  <si>
+    <t>Huyền</t>
+  </si>
+  <si>
+    <t>ĐN hệ thống_1</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Đăng nhập" với đầy đủ các thành phần hay không</t>
+  </si>
+  <si>
+    <t>Click chuột vào biểu tượng để mở phần mềm.</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Đăng nhập" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>ĐN hệ thống_2</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Đăng nhập" có báo lỗi khi nhập sai User hoặc Password không</t>
+  </si>
+  <si>
+    <t>Click chuột vào biểu tượng để mở phần mềm rồi điền 1 user và password bất kì</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>ĐN hệ thống_3</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Đăng nhập" có hoạt động không</t>
+  </si>
+  <si>
+    <t>Click chuột vào biểu tượng để mở phần mềm rồi điền 1 user và password của admin</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Thoát hệ thống_1</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Exit" với đầy đủ các thành phần hay không</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị dòng lựa chọn "Exit " </t>
+  </si>
+  <si>
+    <t>Thoát hệ thống_2</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Exit" có hoạt động hay không</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống
++ B2: - Click chọn “Exit"</t>
+  </si>
+  <si>
+    <t>Thoát khỏi phần mềm</t>
   </si>
 </sst>
 </file>
@@ -602,7 +757,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -660,6 +815,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,8 +848,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,12 +1188,12 @@
     <row r="8" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="4:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="4:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1037,6 +1216,823 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="9" style="23"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="39">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="39">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="39">
+        <v>42524</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="39">
+        <v>42525</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="39">
+        <v>42526</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="39">
+        <v>42527</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="39">
+        <v>42528</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="39">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="39">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="39">
+        <v>42524</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1055,45 +2051,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1176,41 +2172,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1600,16 +2596,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1806,7 +2802,7 @@
   <dimension ref="A19:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1816,30 +2812,30 @@
   </cols>
   <sheetData>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -1922,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5">
         <v>3</v>
       </c>
       <c r="H23" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2008,14 +3004,30 @@
       <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5">
+        <v>28</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -2056,14 +3068,30 @@
       <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>100</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
@@ -2072,14 +3100,30 @@
       <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>100</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -2219,87 +3263,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="30">
         <v>4</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="30">
         <v>0</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="30">
         <v>4</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2349,7 +3393,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="24">
         <v>42522</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -2376,7 +3420,7 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="24">
         <v>42523</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -2403,7 +3447,7 @@
       <c r="F13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="24">
         <v>42524</v>
       </c>
       <c r="H13" s="16" t="s">
@@ -2430,7 +3474,7 @@
       <c r="F14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="24">
         <v>42525</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -2580,7 +3624,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2597,17 +3641,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -2616,11 +3660,11 @@
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -2631,11 +3675,11 @@
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -2646,11 +3690,11 @@
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="30">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -2661,11 +3705,11 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -2676,11 +3720,11 @@
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="30">
         <v>0</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -2691,11 +3735,11 @@
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="28">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="E7" s="30">
+        <v>2</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -2706,11 +3750,11 @@
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
@@ -2773,7 +3817,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="24">
         <v>42522</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -2797,10 +3841,8 @@
       <c r="E12" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="F12" s="16"/>
+      <c r="G12" s="24">
         <v>42523</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -2824,10 +3866,8 @@
       <c r="E13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="32">
+      <c r="F13" s="16"/>
+      <c r="G13" s="24">
         <v>42524</v>
       </c>
       <c r="H13" s="16" t="s">
@@ -2872,17 +3912,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -2891,11 +3931,11 @@
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -2906,11 +3946,11 @@
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -2921,11 +3961,11 @@
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -2936,11 +3976,11 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -2951,11 +3991,11 @@
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="30">
         <v>0</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -2966,11 +4006,11 @@
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -2981,11 +4021,11 @@
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="30">
         <v>2</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
@@ -3048,7 +4088,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="24">
         <v>42522</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -3075,7 +4115,7 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="24">
         <v>42523</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -3090,7 +4130,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="16"/>
       <c r="I13" s="18"/>
     </row>

--- a/A. Documents/06 Tài liệu testcase.xlsx
+++ b/A. Documents/06 Tài liệu testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="187">
   <si>
     <t>Trang ký</t>
   </si>
@@ -821,6 +821,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -847,27 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,12 +1188,12 @@
     <row r="8" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="4:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="4:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1239,17 +1239,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1385,10 +1385,10 @@
       <c r="B11" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1397,7 +1397,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="30">
         <v>42522</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -1412,7 +1412,7 @@
       <c r="B12" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="27" t="s">
         <v>147</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -1424,7 +1424,7 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="30">
         <v>42523</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -1439,7 +1439,7 @@
       <c r="B13" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1448,8 +1448,8 @@
       <c r="E13" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="39">
+      <c r="F13" s="28"/>
+      <c r="G13" s="30">
         <v>42524</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -1464,7 +1464,7 @@
       <c r="B14" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="29" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -1473,8 +1473,8 @@
       <c r="E14" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="39">
+      <c r="F14" s="28"/>
+      <c r="G14" s="30">
         <v>42525</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -1489,7 +1489,7 @@
       <c r="B15" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="29" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -1498,8 +1498,8 @@
       <c r="E15" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="39">
+      <c r="F15" s="28"/>
+      <c r="G15" s="30">
         <v>42526</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -1514,7 +1514,7 @@
       <c r="B16" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="29" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -1523,8 +1523,8 @@
       <c r="E16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="39">
+      <c r="F16" s="28"/>
+      <c r="G16" s="30">
         <v>42527</v>
       </c>
       <c r="H16" s="18" t="s">
@@ -1539,7 +1539,7 @@
       <c r="B17" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="25" t="s">
         <v>165</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -1548,8 +1548,8 @@
       <c r="E17" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="39">
+      <c r="F17" s="28"/>
+      <c r="G17" s="30">
         <v>42528</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -1584,17 +1584,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1749,7 +1749,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="30">
         <v>42522</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -1776,7 +1776,7 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="30">
         <v>42523</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -1800,10 +1800,10 @@
       <c r="E13" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="30">
         <v>42524</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -1836,17 +1836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1989,7 +1989,7 @@
       <c r="B11" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="27" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -2012,7 +2012,7 @@
       <c r="B12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="27" t="s">
         <v>185</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -2051,45 +2051,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -2172,41 +2172,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2596,16 +2596,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2812,30 +2812,30 @@
   </cols>
   <sheetData>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <v>3</v>
       </c>
       <c r="H23" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3263,87 +3263,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="37">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="37">
         <v>0</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="37">
         <v>0</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="37">
         <v>0</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="37">
         <v>4</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3623,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3641,17 +3641,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3660,11 +3660,11 @@
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -3675,11 +3675,11 @@
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -3690,11 +3690,11 @@
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="37">
         <v>3</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -3705,11 +3705,11 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="37">
         <v>0</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -3720,11 +3720,11 @@
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="37">
         <v>0</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -3735,11 +3735,11 @@
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="30">
-        <v>2</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -3750,11 +3750,11 @@
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="37">
         <v>3</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
@@ -3841,7 +3841,9 @@
       <c r="E12" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="24">
         <v>42523</v>
       </c>
@@ -3866,7 +3868,9 @@
       <c r="E13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="24">
         <v>42524</v>
       </c>
@@ -3912,17 +3916,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3931,11 +3935,11 @@
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -3946,11 +3950,11 @@
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -3961,11 +3965,11 @@
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="37">
         <v>2</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -3976,11 +3980,11 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="37">
         <v>0</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -3991,11 +3995,11 @@
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="37">
         <v>0</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -4006,11 +4010,11 @@
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="37">
         <v>0</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -4021,11 +4025,11 @@
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="37">
         <v>2</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>

--- a/A. Documents/06 Tài liệu testcase.xlsx
+++ b/A. Documents/06 Tài liệu testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="Tọa hóa đơn nhập thuốc" sheetId="8" r:id="rId8"/>
     <sheet name="Quản lý hóa đơn" sheetId="11" r:id="rId9"/>
     <sheet name="Quản lý thuốc" sheetId="12" r:id="rId10"/>
-    <sheet name="Đăng nhập hệ thống" sheetId="13" r:id="rId11"/>
-    <sheet name="Thoát" sheetId="14" r:id="rId12"/>
+    <sheet name="Quản lý nhóm thuốc" sheetId="15" r:id="rId11"/>
+    <sheet name="Đăng nhập hệ thống" sheetId="13" r:id="rId12"/>
+    <sheet name="Thoát" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="200">
   <si>
     <t>Trang ký</t>
   </si>
@@ -608,6 +609,50 @@
   </si>
   <si>
     <t>Thoát khỏi phần mềm</t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc_1</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Quản lý nhóm thuốc" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc_2</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Nhóm thuốc" hay không</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống
++ B2: - Click chọn “Quản lý thuốc” -&gt;  “Nhóm huốc”</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện "Nhóm thuốc" với đầy đủ các phần như trong tài liệu Đặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc_3</t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ B1: Mở menu Hệ thống
++ B2: Click chọn "Quản lý thuốc" -&gt; "Nhóm thuốc"
++ B3: Nhấn icon “Edit” của loại thuốc cần chỉnh sửa. </t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc_5</t>
+  </si>
+  <si>
+    <t>+ B1: Mở menu Hệ thống
++ B2: Click chọn "Quản lý thuốc" -&gt; "Nhóm thuốc"
++ B3: Nhấn icon “Delete” của loại thuốc cần xóa</t>
+  </si>
+  <si>
+    <t>QL nhóm thuốc_6</t>
+  </si>
+  <si>
+    <t>Kiểm thử xem có chức năng "Tìm kiếm nhóm thuốc" hay không</t>
   </si>
 </sst>
 </file>
@@ -757,7 +802,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -820,6 +865,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1188,12 +1236,12 @@
     <row r="8" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="4:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="4:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1223,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1239,17 +1287,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1385,10 +1433,10 @@
       <c r="B11" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1397,7 +1445,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>42522</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -1412,7 +1460,7 @@
       <c r="B12" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -1424,7 +1472,7 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="31">
         <v>42523</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -1439,7 +1487,7 @@
       <c r="B13" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>151</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1448,8 +1496,8 @@
       <c r="E13" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="30">
+      <c r="F13" s="29"/>
+      <c r="G13" s="31">
         <v>42524</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -1464,7 +1512,7 @@
       <c r="B14" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -1473,8 +1521,8 @@
       <c r="E14" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="30">
+      <c r="F14" s="29"/>
+      <c r="G14" s="31">
         <v>42525</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -1489,7 +1537,7 @@
       <c r="B15" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -1498,8 +1546,8 @@
       <c r="E15" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30">
+      <c r="F15" s="29"/>
+      <c r="G15" s="31">
         <v>42526</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -1514,7 +1562,7 @@
       <c r="B16" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -1523,8 +1571,8 @@
       <c r="E16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="30">
+      <c r="F16" s="29"/>
+      <c r="G16" s="31">
         <v>42527</v>
       </c>
       <c r="H16" s="18" t="s">
@@ -1539,7 +1587,7 @@
       <c r="B17" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>165</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -1548,8 +1596,8 @@
       <c r="E17" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="30">
+      <c r="F17" s="29"/>
+      <c r="G17" s="31">
         <v>42528</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -1566,6 +1614,340 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="31">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="31">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="31">
+        <v>42524</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31">
+        <v>42525</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31">
+        <v>42526</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="189" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="31">
+        <v>42527</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -1584,17 +1966,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1749,7 +2131,7 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>42522</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -1776,7 +2158,7 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="31">
         <v>42523</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -1800,10 +2182,10 @@
       <c r="E13" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="31">
         <v>42524</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -1819,12 +2201,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1833,20 +2215,21 @@
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1989,7 +2372,7 @@
       <c r="B11" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -2001,8 +2384,12 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="31">
+        <v>42522</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -2012,7 +2399,7 @@
       <c r="B12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>185</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -2024,8 +2411,12 @@
       <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="31">
+        <v>42523</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="I12" s="18"/>
     </row>
   </sheetData>
@@ -2051,45 +2442,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -2172,41 +2563,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2585,7 +2976,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2596,16 +2987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2801,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2812,30 +3203,30 @@
   </cols>
   <sheetData>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -3036,14 +3427,30 @@
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -3263,87 +3670,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="38">
         <v>4</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3623,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3641,17 +4048,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3660,11 +4067,11 @@
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -3675,11 +4082,11 @@
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -3690,11 +4097,11 @@
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="38">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -3705,11 +4112,11 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -3720,11 +4127,11 @@
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -3735,11 +4142,11 @@
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -3750,11 +4157,11 @@
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="38">
         <v>3</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
@@ -3916,17 +4323,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3935,11 +4342,11 @@
       <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -3950,11 +4357,11 @@
       <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -3965,11 +4372,11 @@
       <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="38">
         <v>2</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -3980,11 +4387,11 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -3995,11 +4402,11 @@
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -4010,11 +4417,11 @@
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -4025,11 +4432,11 @@
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
